--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccessByMobile.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccessByMobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -59,11 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccessByMobile.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccessByMobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
